--- a/worker-service/templates/template-simple.xlsx
+++ b/worker-service/templates/template-simple.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceBuild\github\excel-worker\worker-service\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EE795E-E538-48D5-8F6E-4A85358F18E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251D22D0-F25D-4506-88F3-4153DF600332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26730" yWindow="2715" windowWidth="21555" windowHeight="11745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28095" yWindow="810" windowWidth="20700" windowHeight="13335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Report" sheetId="1" r:id="rId1"/>
-    <sheet name="config" sheetId="2" r:id="rId2"/>
-    <sheet name="data" sheetId="3" r:id="rId3"/>
+    <sheet name="Report" sheetId="6" r:id="rId1"/>
+    <sheet name="Report-template" sheetId="5" r:id="rId2"/>
+    <sheet name="config" sheetId="2" r:id="rId3"/>
+    <sheet name="data" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -172,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3026" uniqueCount="3026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3033" uniqueCount="3026">
   <si>
     <t>begin</t>
   </si>
@@ -9387,7 +9388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9422,6 +9423,9 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9761,11 +9765,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DB01D1-1F51-47DA-B499-129F05F8197D}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9797,42 +9801,115 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>3025</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>7</v>
       </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A9:D9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CCCE209-D047-44CD-AEB6-AE4E8BA65740}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="2" max="3" width="14.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>3025</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A8:D8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9907,11 +9984,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D1002"/>
   <sheetViews>
-    <sheetView topLeftCell="A983" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G993" sqref="G993"/>
     </sheetView>
   </sheetViews>
